--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -100,12 +100,12 @@
     <t>safe</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -115,10 +115,10 @@
     <t>special</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>heroes</t>
@@ -1262,25 +1262,25 @@
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.6782608695652174</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1288,25 +1288,25 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L13">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,25 +1392,25 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.5792682926829268</v>
+        <v>0.5671641791044776</v>
       </c>
       <c r="L17">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>138</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1418,25 +1418,25 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.5671641791044776</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="10:17">
